--- a/Nutzwertanalyse.xlsx
+++ b/Nutzwertanalyse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janne\Desktop\Github\Komplexlabor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98cd8e224f73c0f5/Desktop/newgit/komplexlab/Komplexlabor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CBBD041-98DE-4D39-BE51-DDB6F125F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{9CBBD041-98DE-4D39-BE51-DDB6F125F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DE09F35-9574-4622-89E3-D069A878E96B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{D84C932A-B5BF-430A-B04A-EC047D0074B2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{D84C932A-B5BF-430A-B04A-EC047D0074B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Motor" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
   <si>
     <t>Nutzwertanalyse</t>
   </si>
@@ -70,15 +70,9 @@
     <t>Materialkosten</t>
   </si>
   <si>
-    <t>gering</t>
-  </si>
-  <si>
     <t>Verschleiß</t>
   </si>
   <si>
-    <t>hoch</t>
-  </si>
-  <si>
     <t>Gewicht</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
   </si>
   <si>
     <t>Summe</t>
-  </si>
-  <si>
-    <t>niedrig</t>
   </si>
   <si>
     <t xml:space="preserve">Variante 1
@@ -144,34 +135,19 @@
 Schrittmotor mit Bowdenzug</t>
   </si>
   <si>
-    <t>moderat</t>
-  </si>
-  <si>
-    <t>klein</t>
-  </si>
-  <si>
-    <t>einfach</t>
-  </si>
-  <si>
-    <t>starr</t>
-  </si>
-  <si>
     <t>Ansteuerung</t>
   </si>
   <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>kompliziert</t>
-  </si>
-  <si>
-    <t>groß</t>
-  </si>
-  <si>
-    <t>sehr hoch</t>
-  </si>
-  <si>
     <t>Ausgeglichenheit Labyrinth</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1059,28 +1035,28 @@
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="205" zoomScaleNormal="100" zoomScalePageLayoutView="205" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B2" zoomScale="107" zoomScaleNormal="100" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="5.54296875" customWidth="1"/>
+    <col min="13" max="13" width="20.54296875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="5.54296875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1099,9 +1075,9 @@
       <c r="N1" s="29"/>
       <c r="O1" s="30"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -1118,24 +1094,24 @@
       <c r="N2" s="32"/>
       <c r="O2" s="33"/>
     </row>
-    <row r="3" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="36"/>
       <c r="D3" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="38"/>
       <c r="G3" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="25"/>
       <c r="J3" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K3" s="24"/>
       <c r="L3" s="25"/>
@@ -1145,7 +1121,7 @@
       <c r="N3" s="24"/>
       <c r="O3" s="39"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1163,7 +1139,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>6</v>
@@ -1190,7 +1166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -1201,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4">
         <v>5</v>
@@ -1210,25 +1186,25 @@
         <f>C5*E5</f>
         <v>25</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>11</v>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H5" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" ref="I5:I16" si="0">C5*H5</f>
-        <v>15</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="K5" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" s="5">
         <f>C5*K5</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="4"/>
@@ -1237,18 +1213,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -1257,8 +1233,8 @@
         <f t="shared" ref="F6:F14" si="2">C6*E6</f>
         <v>25</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H6" s="1">
         <v>10</v>
@@ -1267,8 +1243,8 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>15</v>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="K6" s="1">
         <v>10</v>
@@ -1284,18 +1260,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
@@ -1304,8 +1280,8 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>32</v>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
@@ -1314,15 +1290,15 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>39</v>
+      <c r="J7" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="K7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
@@ -1331,12 +1307,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3">
         <v>20</v>
@@ -1351,18 +1327,18 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H8" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="K8" s="1">
         <v>10</v>
@@ -1378,18 +1354,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -1398,18 +1374,18 @@
         <f>C9*E9</f>
         <v>120</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="K9" s="1">
         <v>10</v>
@@ -1425,18 +1401,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -1445,25 +1421,25 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="K10" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="1"/>
@@ -1472,18 +1448,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -1492,8 +1468,8 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H11" s="1">
         <v>5</v>
@@ -1502,15 +1478,15 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
+      <c r="J11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="K11" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="1"/>
@@ -1519,18 +1495,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1">
         <v>8</v>
@@ -1539,8 +1515,8 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>11</v>
+      <c r="G12" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H12" s="1">
         <v>5</v>
@@ -1549,15 +1525,15 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>40</v>
+      <c r="J12" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="K12" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="1"/>
@@ -1566,18 +1542,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>9</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3">
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1">
         <v>8</v>
@@ -1586,25 +1562,25 @@
         <f>C13*E13</f>
         <v>80</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H13" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>38</v>
+        <v>100</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="K13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L13" s="5">
         <f>C13*K13</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="1"/>
@@ -1613,18 +1589,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1">
         <v>7</v>
@@ -1633,25 +1609,25 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>37</v>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="K14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="1"/>
@@ -1660,18 +1636,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
@@ -1680,25 +1656,25 @@
         <f>C15*E15</f>
         <v>50</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>38</v>
+      <c r="G15" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="K15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="1"/>
@@ -1707,18 +1683,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3">
         <v>10</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1">
         <v>7</v>
@@ -1727,18 +1703,18 @@
         <f>C16*E16</f>
         <v>70</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>15</v>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="K16" s="1">
         <v>10</v>
@@ -1754,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -1776,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -1798,17 +1774,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17"/>
       <c r="B19" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="18">
         <f>SUM(C5:C18)</f>
         <v>100</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="18">
@@ -1816,23 +1792,23 @@
         <v>615</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="18">
         <f>SUM(I5:I18)</f>
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="18">
         <f>SUM(L5:L18)</f>
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N19" s="27"/>
       <c r="O19" s="19">
@@ -1873,20 +1849,20 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1899,9 +1875,9 @@
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -1912,24 +1888,24 @@
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
     </row>
-    <row r="3" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="42"/>
       <c r="D3" s="23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="39"/>
       <c r="G3" s="23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="39"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1956,7 +1932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -1975,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -1994,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -2012,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -2031,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -2050,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -2069,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -2088,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -2107,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -2126,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -2145,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -2164,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -2183,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -2202,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -2221,17 +2197,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="18">
         <f>SUM(C5:C18)</f>
         <v>0</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="18">
@@ -2239,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="18">
@@ -2276,22 +2252,22 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -2304,9 +2280,9 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -2317,24 +2293,24 @@
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
     </row>
-    <row r="3" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="36"/>
       <c r="D3" s="25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="38"/>
       <c r="G3" s="25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" s="37"/>
       <c r="I3" s="38"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -2361,7 +2337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -2380,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -2399,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -2417,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -2436,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -2455,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -2474,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -2493,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
@@ -2504,7 +2480,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -2523,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -2542,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -2561,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -2580,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -2599,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -2618,17 +2594,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="18">
         <f>SUM(C5:C18)</f>
         <v>0</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="18">
@@ -2636,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="18">

--- a/Nutzwertanalyse.xlsx
+++ b/Nutzwertanalyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98cd8e224f73c0f5/Desktop/newgit/komplexlab/Komplexlabor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{9CBBD041-98DE-4D39-BE51-DDB6F125F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DE09F35-9574-4622-89E3-D069A878E96B}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{9CBBD041-98DE-4D39-BE51-DDB6F125F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA5E76B6-0ABB-4454-8D8E-732405AD565A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{D84C932A-B5BF-430A-B04A-EC047D0074B2}"/>
   </bookViews>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="B2" zoomScale="107" zoomScaleNormal="100" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1044,12 +1044,12 @@
     <col min="1" max="1" width="4.453125" customWidth="1"/>
     <col min="2" max="2" width="31.26953125" customWidth="1"/>
     <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.26953125" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" customWidth="1"/>
     <col min="5" max="5" width="5.54296875" customWidth="1"/>
-    <col min="7" max="7" width="20.54296875" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" customWidth="1"/>
     <col min="8" max="8" width="5.54296875" customWidth="1"/>
     <col min="9" max="9" width="9.453125" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
     <col min="11" max="11" width="5.54296875" customWidth="1"/>
     <col min="13" max="13" width="20.54296875" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="5.54296875" hidden="1" customWidth="1"/>
@@ -1274,11 +1274,11 @@
         <v>32</v>
       </c>
       <c r="E7" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>31</v>
@@ -1318,14 +1318,14 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>31</v>
@@ -1368,11 +1368,11 @@
         <v>31</v>
       </c>
       <c r="E9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="5">
         <f>C9*E9</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>31</v>
@@ -1415,11 +1415,11 @@
         <v>32</v>
       </c>
       <c r="E10" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>31</v>
@@ -1509,11 +1509,11 @@
         <v>32</v>
       </c>
       <c r="E12" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>31</v>
@@ -1556,11 +1556,11 @@
         <v>32</v>
       </c>
       <c r="E13" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" s="5">
         <f>C13*E13</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>32</v>
@@ -1603,11 +1603,11 @@
         <v>31</v>
       </c>
       <c r="E14" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>31</v>
@@ -1697,11 +1697,11 @@
         <v>31</v>
       </c>
       <c r="E16" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F16" s="5">
         <f>C16*E16</f>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>31</v>
@@ -1789,7 +1789,7 @@
       <c r="E19" s="27"/>
       <c r="F19" s="18">
         <f>SUM(F5:F18)</f>
-        <v>615</v>
+        <v>675</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>12</v>
@@ -1831,7 +1831,7 @@
     <mergeCell ref="M3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="15" max="1048575" man="1"/>
   </colBreaks>

--- a/Nutzwertanalyse.xlsx
+++ b/Nutzwertanalyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98cd8e224f73c0f5/Desktop/newgit/komplexlab/Komplexlabor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{9CBBD041-98DE-4D39-BE51-DDB6F125F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA5E76B6-0ABB-4454-8D8E-732405AD565A}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{9CBBD041-98DE-4D39-BE51-DDB6F125F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E94400E8-CDF5-4030-B6D9-7DBE1DFC9250}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{D84C932A-B5BF-430A-B04A-EC047D0074B2}"/>
   </bookViews>
@@ -131,23 +131,23 @@
 Schrittmotor</t>
   </si>
   <si>
+    <t>Ansteuerung</t>
+  </si>
+  <si>
+    <t>Ausgeglichenheit Labyrinth</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Variante 3
-Schrittmotor mit Bowdenzug</t>
-  </si>
-  <si>
-    <t>Ansteuerung</t>
-  </si>
-  <si>
-    <t>Ausgeglichenheit Labyrinth</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-</t>
+Schrittmotor Seilzug</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1035,8 @@
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B2" zoomScale="107" zoomScaleNormal="100" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="107" zoomScaleNormal="100" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1111,7 +1111,7 @@
       <c r="H3" s="24"/>
       <c r="I3" s="25"/>
       <c r="J3" s="23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K3" s="24"/>
       <c r="L3" s="25"/>
@@ -1177,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4">
         <v>5</v>
@@ -1187,7 +1187,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -1234,7 +1234,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1">
         <v>10</v>
@@ -1244,7 +1244,7 @@
         <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="1">
         <v>10</v>
@@ -1271,7 +1271,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
@@ -1281,7 +1281,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
@@ -1291,7 +1291,7 @@
         <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
@@ -1328,17 +1328,17 @@
         <v>100</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="K8" s="1">
         <v>10</v>
@@ -1365,7 +1365,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
@@ -1378,14 +1378,14 @@
         <v>31</v>
       </c>
       <c r="H9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" s="1">
         <v>10</v>
@@ -1412,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
@@ -1422,7 +1422,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="1">
         <v>5</v>
@@ -1432,7 +1432,7 @@
         <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="1">
         <v>5</v>
@@ -1459,7 +1459,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -1469,17 +1469,17 @@
         <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11" s="1">
         <v>5</v>
@@ -1506,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -1516,7 +1516,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="1">
         <v>5</v>
@@ -1526,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12" s="1">
         <v>5</v>
@@ -1553,7 +1553,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
@@ -1563,7 +1563,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="1">
         <v>10</v>
@@ -1573,7 +1573,7 @@
         <v>100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13" s="1">
         <v>5</v>
@@ -1600,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
@@ -1610,7 +1610,7 @@
         <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="1">
         <v>5</v>
@@ -1620,7 +1620,7 @@
         <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14" s="1">
         <v>5</v>
@@ -1641,13 +1641,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
@@ -1657,7 +1657,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="1">
         <v>5</v>
@@ -1667,7 +1667,7 @@
         <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3">
         <v>10</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
@@ -1704,17 +1704,17 @@
         <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="H16" s="1">
-        <v>5</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="K16" s="1">
         <v>10</v>
@@ -1797,7 +1797,7 @@
       <c r="H19" s="27"/>
       <c r="I19" s="18">
         <f>SUM(I5:I18)</f>
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>12</v>

--- a/Nutzwertanalyse.xlsx
+++ b/Nutzwertanalyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98cd8e224f73c0f5/Desktop/newgit/komplexlab/Komplexlabor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{9CBBD041-98DE-4D39-BE51-DDB6F125F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E94400E8-CDF5-4030-B6D9-7DBE1DFC9250}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{9CBBD041-98DE-4D39-BE51-DDB6F125F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BED09501-AF63-40AB-95B0-7090DC6C9689}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{D84C932A-B5BF-430A-B04A-EC047D0074B2}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Aufhängung" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Motor!$A$1:$O$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Motor!$A$1:$Q$19</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,16 +40,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
   <si>
     <t>Nutzwertanalyse</t>
   </si>
   <si>
     <t>Bewertungskriterien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variante 3
-</t>
   </si>
   <si>
     <t>Nr.</t>
@@ -148,6 +144,16 @@
   <si>
     <t>Variante 3
 Schrittmotor Seilzug</t>
+  </si>
+  <si>
+    <t>Variante 4
+Servo und Kurve</t>
+  </si>
+  <si>
+    <t>Eig</t>
+  </si>
+  <si>
+    <t>gew.Wert</t>
   </si>
 </sst>
 </file>
@@ -179,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -368,19 +374,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -612,11 +605,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -633,73 +681,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -707,13 +752,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1033,10 +1095,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="107" zoomScaleNormal="100" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="107" zoomScaleNormal="100" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1053,10 +1115,11 @@
     <col min="11" max="11" width="5.54296875" customWidth="1"/>
     <col min="13" max="13" width="20.54296875" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="5.54296875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="5.54296875" customWidth="1"/>
+    <col min="17" max="17" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1073,111 +1136,123 @@
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
-    </row>
-    <row r="3" spans="1:15" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+    </row>
+    <row r="3" spans="1:17" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
+        <v>24</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="25"/>
       <c r="J3" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="24"/>
       <c r="L3" s="25"/>
       <c r="M3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="39"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="J4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="M4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5">
         <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4">
         <v>5</v>
@@ -1187,7 +1262,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -1197,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -1208,33 +1283,39 @@
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="5">
-        <f t="shared" ref="O5:O18" si="1">C5*N5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O5" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="44">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="44">
+        <f>C5*P5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" ref="F6:F14" si="1">C6*E6</f>
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" ref="F6:F14" si="2">C6*E6</f>
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="1">
         <v>10</v>
@@ -1244,128 +1325,146 @@
         <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1">
         <v>10</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6:L16" si="3">C6*K6</f>
+        <f t="shared" ref="L6:L16" si="2">C6*K6</f>
         <v>50</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O6" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="44">
+        <f t="shared" ref="Q6:Q16" si="3">C6*P6</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O7" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="44">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="44">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K8" s="1">
         <v>10</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O8" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="44">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
@@ -1375,7 +1474,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1">
         <v>10</v>
@@ -1385,7 +1484,7 @@
         <v>200</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" s="1">
         <v>10</v>
@@ -1396,164 +1495,188 @@
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O9" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="44">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="44">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
       <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5</v>
+      </c>
+      <c r="L10" s="5">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="1">
-        <v>5</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="1">
-        <v>5</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O10" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="44">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="44">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
       </c>
       <c r="F11" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+      <c r="L11" s="5">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="1">
-        <v>5</v>
-      </c>
-      <c r="L11" s="5">
-        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O11" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="44">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="44">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
       </c>
       <c r="F12" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L12" s="5">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="1">
-        <v>5</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="1">
-        <v>5</v>
-      </c>
-      <c r="L12" s="5">
-        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O12" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="44">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="44">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>9</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3">
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
@@ -1563,7 +1686,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="1">
         <v>10</v>
@@ -1573,7 +1696,7 @@
         <v>100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" s="1">
         <v>5</v>
@@ -1584,70 +1707,82 @@
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O13" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="44">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
       <c r="F14" s="5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5</v>
+      </c>
+      <c r="L14" s="5">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="1">
-        <v>5</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="1">
-        <v>5</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O14" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="44">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="44">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
@@ -1657,7 +1792,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="1">
         <v>5</v>
@@ -1667,34 +1802,40 @@
         <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O15" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="44">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3">
         <v>10</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
@@ -1704,7 +1845,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -1714,23 +1855,29 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16" s="1">
         <v>10</v>
       </c>
       <c r="L16" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="M16" s="22"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="44">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="44">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -1747,12 +1894,11 @@
       <c r="L17" s="5"/>
       <c r="M17" s="2"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -1764,27 +1910,26 @@
       <c r="G18" s="15"/>
       <c r="H18" s="13"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="5"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
       <c r="M18" s="15"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17"/>
       <c r="B19" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="18">
         <f>SUM(C5:C18)</f>
         <v>100</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="18">
@@ -1792,7 +1937,7 @@
         <v>675</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="18">
@@ -1800,41 +1945,41 @@
         <v>575</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K19" s="27"/>
-      <c r="L19" s="18">
+      <c r="L19" s="19">
         <f>SUM(L5:L18)</f>
         <v>700</v>
       </c>
-      <c r="M19" s="26" t="s">
-        <v>12</v>
+      <c r="M19" s="48" t="s">
+        <v>11</v>
       </c>
       <c r="N19" s="27"/>
-      <c r="O19" s="19">
-        <f>SUM(O5:O18)</f>
-        <v>0</v>
+      <c r="O19" s="52"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="19">
+        <f>SUM(Q5:Q18)</f>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="O19:P19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="15" max="1048575" man="1"/>
-  </colBreaks>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1876,60 +2021,60 @@
       <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="A2" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="39"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="24"/>
-      <c r="I3" s="39"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -2200,14 +2345,14 @@
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="18">
         <f>SUM(C5:C18)</f>
         <v>0</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="18">
@@ -2215,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="18">
@@ -2268,73 +2413,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="A2" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -2597,14 +2742,14 @@
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="18">
         <f>SUM(C5:C18)</f>
         <v>0</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="18">
@@ -2612,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="18">

--- a/Nutzwertanalyse.xlsx
+++ b/Nutzwertanalyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98cd8e224f73c0f5/Desktop/newgit/komplexlab/Komplexlabor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{9CBBD041-98DE-4D39-BE51-DDB6F125F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BED09501-AF63-40AB-95B0-7090DC6C9689}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="8_{9CBBD041-98DE-4D39-BE51-DDB6F125F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71ACAAE0-C202-40F4-B244-76C079DA466E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{D84C932A-B5BF-430A-B04A-EC047D0074B2}"/>
   </bookViews>
@@ -698,84 +698,84 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1095,10 +1095,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="107" zoomScaleNormal="100" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="107" zoomScaleNormal="100" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1120,75 +1120,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
     </row>
     <row r="3" spans="1:17" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="25" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="23" t="s">
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="23" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="23" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
@@ -1231,13 +1231,13 @@
       <c r="N4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="43" t="s">
+      <c r="P4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="23" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1255,11 +1255,11 @@
         <v>29</v>
       </c>
       <c r="E5" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5">
         <f>C5*E5</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>31</v>
@@ -1283,13 +1283,13 @@
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="44" t="s">
+      <c r="O5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="44">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="44">
+      <c r="P5" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="24">
         <f>C5*P5</f>
         <v>50</v>
       </c>
@@ -1308,11 +1308,11 @@
         <v>29</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ref="F6:F14" si="1">C6*E6</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>30</v>
@@ -1336,13 +1336,13 @@
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="44" t="s">
+      <c r="O6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="44">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="44">
+      <c r="P6" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="24">
         <f t="shared" ref="Q6:Q16" si="3">C6*P6</f>
         <v>25</v>
       </c>
@@ -1389,13 +1389,13 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="44">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="44">
+      <c r="P7" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="24">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
@@ -1442,15 +1442,15 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="44" t="s">
+      <c r="O8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="44">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="44">
+      <c r="P8" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="24">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -1477,31 +1477,31 @@
         <v>30</v>
       </c>
       <c r="H9" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K9" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L9" s="5">
         <f>C9*K9</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="44" t="s">
+      <c r="O9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="44">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="44">
+      <c r="P9" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="24">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
@@ -1520,43 +1520,43 @@
         <v>30</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="44" t="s">
+      <c r="O10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="44">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="44">
+      <c r="P10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -1601,13 +1601,13 @@
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="44" t="s">
+      <c r="O11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="44">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="44">
+      <c r="P11" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="24">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
@@ -1630,37 +1630,37 @@
       </c>
       <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="44" t="s">
+      <c r="O12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="44">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="44">
+      <c r="P12" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="24">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
@@ -1707,15 +1707,15 @@
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="44" t="s">
+      <c r="O13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="P13" s="44">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="44">
+      <c r="P13" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="24">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -1732,41 +1732,41 @@
         <v>29</v>
       </c>
       <c r="E14" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K14" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="44" t="s">
+      <c r="O14" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="44">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="44">
+      <c r="P14" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="24">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
@@ -1813,13 +1813,13 @@
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="44" t="s">
+      <c r="O15" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="44">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="44">
+      <c r="P15" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="24">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -1832,13 +1832,13 @@
         <v>28</v>
       </c>
       <c r="C16" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F16" s="5">
         <f>C16*E16</f>
@@ -1862,19 +1862,19 @@
       </c>
       <c r="L16" s="5">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="44" t="s">
+      <c r="O16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="44">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="44">
+      <c r="P16" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="24">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -1894,9 +1894,9 @@
       <c r="L17" s="5"/>
       <c r="M17" s="2"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
     </row>
     <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
@@ -1910,14 +1910,14 @@
       <c r="G18" s="15"/>
       <c r="H18" s="13"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="51"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
       <c r="M18" s="15"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17"/>
@@ -1928,39 +1928,39 @@
         <f>SUM(C5:C18)</f>
         <v>100</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="27"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="18">
         <f>SUM(F5:F18)</f>
-        <v>675</v>
-      </c>
-      <c r="G19" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="G19" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="27"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="18">
         <f>SUM(I5:I18)</f>
-        <v>575</v>
-      </c>
-      <c r="J19" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="J19" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="27"/>
+      <c r="K19" s="33"/>
       <c r="L19" s="19">
         <f>SUM(L5:L18)</f>
-        <v>700</v>
-      </c>
-      <c r="M19" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="M19" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="27"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="48"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="43"/>
       <c r="Q19" s="19">
         <f>SUM(Q5:Q18)</f>
-        <v>800</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -2008,47 +2008,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="23" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="37"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="50"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -2351,18 +2351,18 @@
         <f>SUM(C5:C18)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="27"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="18">
         <f>SUM(F5:F18)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="27"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="18">
         <f>SUM(I5:I18)</f>
         <v>0</v>
@@ -2413,47 +2413,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="25" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -2748,18 +2748,18 @@
         <f>SUM(C5:C18)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="27"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="18">
         <f>SUM(F5:F18)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="27"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="18">
         <f>SUM(I5:I18)</f>
         <v>0</v>
